--- a/data/planung_pm.xlsx
+++ b/data/planung_pm.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mg8QrHg4PCbnUA3mgUx739uCLIT2Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgELABS+/wBEzItpG/LwVCmi+2uOA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
   <si>
     <t>Thema</t>
   </si>
@@ -79,7 +79,7 @@
     <t>Git4: Brachingstrategien</t>
   </si>
   <si>
-    <t>Git5: Remote</t>
+    <t>Git5: Remotes</t>
   </si>
   <si>
     <t>Git6: Workflows</t>
@@ -130,16 +130,10 @@
     <t>Command-Pattern</t>
   </si>
   <si>
-    <t>Flyweight-Pattern und Type Object</t>
+    <t>Flyweight-Pattern</t>
   </si>
   <si>
-    <t>Methods</t>
-  </si>
-  <si>
-    <t>Logging</t>
-  </si>
-  <si>
-    <t>Debugging</t>
+    <t>Type Object</t>
   </si>
   <si>
     <t>Testing</t>
@@ -154,7 +148,13 @@
     <t>Mockito: Mocking</t>
   </si>
   <si>
-    <t>Clean Code</t>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Debugging</t>
   </si>
   <si>
     <t>Javadoc</t>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Refactoring</t>
+  </si>
+  <si>
+    <t>TDD</t>
   </si>
   <si>
     <t>Generics</t>
@@ -208,9 +211,6 @@
     <t>Methodenreferenzen</t>
   </si>
   <si>
-    <t>Collections</t>
-  </si>
-  <si>
     <t>Stream API</t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>Optional</t>
   </si>
   <si>
-    <t>Misc</t>
+    <t>Java/JVM</t>
   </si>
   <si>
     <t>RegExp</t>
@@ -241,10 +241,13 @@
     <t>Reflection</t>
   </si>
   <si>
+    <t>Collections</t>
+  </si>
+  <si>
     <t>Serialisierung</t>
   </si>
   <si>
-    <t>Exception</t>
+    <t>Exceptions</t>
   </si>
   <si>
     <t>GUI</t>
@@ -558,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -578,7 +581,7 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -610,8 +613,11 @@
     <xf borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -938,7 +944,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" hidden="1" min="1" max="1" width="4.29"/>
+    <col customWidth="1" min="1" max="1" width="4.29"/>
     <col customWidth="1" min="2" max="2" width="14.0"/>
     <col customWidth="1" min="3" max="3" width="30.43"/>
     <col customWidth="1" min="4" max="4" width="12.71"/>
@@ -957,8 +963,8 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="str">
-        <f>CONCATENATE("Dauer: ",SUM(D2:D56),"m (",ROUND(SUM(D2:D56)/60,1),"h)")</f>
-        <v>Dauer: 1175m (19,6h)</v>
+        <f>CONCATENATE("Dauer: ",SUM(D2:D58),"m (",ROUND(SUM(D2:D58)/60,1),"h)")</f>
+        <v>Dauer: 1170m (19,5h)</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1002,7 +1008,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="4" t="str">
-        <f t="shared" ref="A2:A88" si="1">CONCATENATE(F2,G2)</f>
+        <f t="shared" ref="A2:A89" si="1">CONCATENATE(F2,G2)</f>
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1316,7 +1322,7 @@
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="15">
@@ -1531,7 +1537,7 @@
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>23</v>
@@ -1544,10 +1550,10 @@
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="15">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G14" s="15">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="13" t="s">
@@ -1619,7 +1625,7 @@
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>23</v>
@@ -1634,7 +1640,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="15">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="G16" s="15">
         <v>5.0</v>
@@ -1716,11 +1722,11 @@
       <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="15">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>33</v>
@@ -1755,28 +1761,28 @@
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="4" t="str">
         <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>3.0</v>
+      <c r="D19" s="15">
+        <v>10.0</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>5.0</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -1799,25 +1805,23 @@
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="15">
-        <v>1.0</v>
+      <c r="D20" s="15">
+        <v>20.0</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12">
+        <v>5.0</v>
       </c>
       <c r="G20" s="15">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="13" t="s">
@@ -1845,23 +1849,23 @@
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="12">
-        <v>30.0</v>
+      <c r="D21" s="15">
+        <v>20.0</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12">
         <v>5.0</v>
       </c>
       <c r="G21" s="15">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="13" t="s">
@@ -1889,23 +1893,25 @@
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="12">
-        <v>30.0</v>
-      </c>
-      <c r="E22" s="12"/>
+        <v>20.0</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F22" s="12">
         <v>5.0</v>
       </c>
       <c r="G22" s="15">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="13" t="s">
@@ -1933,25 +1939,23 @@
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>15.0</v>
+      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="G23" s="15">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>3.0</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="13" t="s">
@@ -1979,24 +1983,24 @@
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="D24" s="12">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="G24" s="12">
+      <c r="F24" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="15">
         <v>4.0</v>
       </c>
       <c r="H24" s="12"/>
@@ -2022,26 +2026,28 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" ht="31.5" customHeight="1">
+    <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="12">
-        <v>35.0</v>
-      </c>
-      <c r="E25" s="12"/>
+        <v>10.0</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F25" s="12">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G25" s="12">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="13" t="s">
@@ -2066,16 +2072,16 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" ht="19.5" customHeight="1">
+    <row r="26" ht="31.5" customHeight="1">
       <c r="A26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="12">
         <v>35.0</v>
@@ -2085,7 +2091,7 @@
         <v>6.0</v>
       </c>
       <c r="G26" s="12">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="13" t="s">
@@ -2113,29 +2119,27 @@
     <row r="27" ht="19.5" customHeight="1">
       <c r="A27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="15">
-        <v>20.0</v>
+        <v>48</v>
+      </c>
+      <c r="D27" s="12">
+        <v>35.0</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G27" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>51</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="H27" s="12"/>
       <c r="I27" s="13" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="14"/>
@@ -2159,30 +2163,26 @@
     <row r="28" ht="19.5" customHeight="1">
       <c r="A28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="12">
-        <v>20.0</v>
+      <c r="D28" s="15">
+        <v>15.0</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="12">
-        <v>3.0</v>
+      <c r="F28" s="15">
+        <v>5.0</v>
       </c>
       <c r="G28" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>52</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -2205,29 +2205,29 @@
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="12">
+        <v>51</v>
+      </c>
+      <c r="D29" s="15">
         <v>20.0</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G29" s="15">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
@@ -2251,29 +2251,29 @@
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="12">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="G30" s="15">
         <v>4.0</v>
       </c>
-      <c r="G30" s="15">
-        <v>2.0</v>
-      </c>
       <c r="H30" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="14"/>
@@ -2297,27 +2297,29 @@
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D31" s="12">
         <v>20.0</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="15">
-        <v>9.0</v>
+      <c r="F31" s="12">
+        <v>4.0</v>
       </c>
       <c r="G31" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="H31" s="12"/>
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="I31" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="14"/>
@@ -2341,27 +2343,29 @@
     <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="D32" s="12">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="G32" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="H32" s="12"/>
+      <c r="F32" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="I32" s="13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="14"/>
@@ -2385,27 +2389,27 @@
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" s="12">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="15">
         <v>9.0</v>
       </c>
-      <c r="G33" s="12">
-        <v>2.0</v>
+      <c r="G33" s="15">
+        <v>3.0</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
@@ -2429,28 +2433,28 @@
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="15">
-        <v>35.0</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>33</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="G34" s="15">
-        <v>3.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1.0</v>
       </c>
       <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
@@ -2473,29 +2477,27 @@
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="12">
-        <v>30.0</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>25.0</v>
+      </c>
+      <c r="E35" s="12"/>
       <c r="F35" s="15">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G35" s="12">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="14"/>
@@ -2519,16 +2521,16 @@
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D36" s="12">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>33</v>
@@ -2537,11 +2539,11 @@
         <v>10.0</v>
       </c>
       <c r="G36" s="12">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="14"/>
@@ -2565,13 +2567,13 @@
     <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="12">
         <v>20.0</v>
@@ -2583,7 +2585,7 @@
         <v>10.0</v>
       </c>
       <c r="G37" s="12">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13" t="s">
@@ -2611,27 +2613,27 @@
     <row r="38" ht="19.5" customHeight="1">
       <c r="A38" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38" s="12">
-        <v>35.0</v>
-      </c>
-      <c r="E38" s="12"/>
+        <v>20.0</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F38" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="G38" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>34</v>
-      </c>
+        <v>10.0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="H38" s="12"/>
       <c r="I38" s="13" t="s">
         <v>11</v>
       </c>
@@ -2657,27 +2659,27 @@
     <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="B39" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>70</v>
+      <c r="C39" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D39" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>35.0</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="G39" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="H39" s="12"/>
+        <v>9.0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="I39" s="13" t="s">
         <v>11</v>
       </c>
@@ -2703,27 +2705,29 @@
     <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="B40" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="15">
-        <v>15.0</v>
-      </c>
-      <c r="E40" s="12"/>
+      <c r="C40" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F40" s="15">
-        <v>11.0</v>
-      </c>
-      <c r="G40" s="15">
-        <v>4.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1.0</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="14"/>
@@ -2747,27 +2751,27 @@
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="12">
-        <v>30.0</v>
+      <c r="C41" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="15">
+        <v>15.0</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="12">
-        <v>8.0</v>
+      <c r="F41" s="15">
+        <v>11.0</v>
       </c>
       <c r="G41" s="15">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="14"/>
@@ -2791,13 +2795,13 @@
     <row r="42" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B42" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>73</v>
+      <c r="C42" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D42" s="12">
         <v>30.0</v>
@@ -2807,7 +2811,7 @@
         <v>8.0</v>
       </c>
       <c r="G42" s="15">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13" t="s">
@@ -2835,29 +2839,27 @@
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="B43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="15">
-        <v>12.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12">
+        <v>8.0</v>
       </c>
       <c r="G43" s="15">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
@@ -2881,29 +2883,29 @@
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="B44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="E44" s="13" t="s">
+      <c r="C44" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="15">
+        <v>35.0</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F44" s="15">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="G44" s="15">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -2927,29 +2929,29 @@
     <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>77</v>
+        <v>122</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="D45" s="12">
         <v>20.0</v>
       </c>
-      <c r="E45" s="12"/>
+      <c r="E45" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F45" s="15">
         <v>12.0</v>
       </c>
       <c r="G45" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>34</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="H45" s="12"/>
       <c r="I45" s="13" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="14"/>
@@ -2973,27 +2975,29 @@
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="B46" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="D46" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="E46" s="12"/>
+        <v>15.0</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="F46" s="15">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G46" s="15">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="14"/>
@@ -3017,25 +3021,27 @@
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="15">
+        <v>77</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="12">
         <v>20.0</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="G47" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="H47" s="12"/>
+        <v>12.0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="I47" s="13" t="s">
         <v>11</v>
       </c>
@@ -3061,23 +3067,23 @@
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D48" s="12">
         <v>20.0</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="G48" s="12">
-        <v>2.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>4.0</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="13" t="s">
@@ -3105,27 +3111,27 @@
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="12">
-        <v>15.0</v>
+        <v>81</v>
+      </c>
+      <c r="D49" s="15">
+        <v>20.0</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="15">
         <v>7.0</v>
       </c>
       <c r="G49" s="12">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="13" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="14"/>
@@ -3149,13 +3155,13 @@
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="12">
         <v>20.0</v>
@@ -3165,7 +3171,7 @@
         <v>7.0</v>
       </c>
       <c r="G50" s="12">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="13" t="s">
@@ -3193,27 +3199,27 @@
     <row r="51" ht="19.5" customHeight="1">
       <c r="A51" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="12">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="15">
         <v>7.0</v>
       </c>
       <c r="G51" s="12">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="13" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="14"/>
@@ -3237,23 +3243,23 @@
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D52" s="12">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="E52" s="12"/>
-      <c r="F52" s="12">
-        <v>11.0</v>
+      <c r="F52" s="15">
+        <v>7.0</v>
       </c>
       <c r="G52" s="12">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="13" t="s">
@@ -3281,23 +3287,23 @@
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="D53" s="12">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E53" s="12"/>
-      <c r="F53" s="12">
-        <v>11.0</v>
+      <c r="F53" s="15">
+        <v>7.0</v>
       </c>
       <c r="G53" s="12">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="13" t="s">
@@ -3325,23 +3331,23 @@
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="15">
-        <v>25.0</v>
+        <v>87</v>
+      </c>
+      <c r="D54" s="12">
+        <v>10.0</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12">
         <v>11.0</v>
       </c>
       <c r="G54" s="12">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="13" t="s">
@@ -3369,25 +3375,23 @@
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D55" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="G55" s="15">
-        <v>3.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>2.0</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="13" t="s">
@@ -3412,32 +3416,32 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
     </row>
-    <row r="56" ht="31.5" customHeight="1">
+    <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>91</v>
+        <v>113</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="12">
-        <v>45.0</v>
+        <v>89</v>
+      </c>
+      <c r="D56" s="15">
+        <v>25.0</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="G56" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J56" s="14"/>
+        <v>3.0</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="12"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="3"/>
@@ -3459,27 +3463,31 @@
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>151</v>
-      </c>
-      <c r="B57" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="D57" s="12">
-        <v>45.0</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="G57" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="14"/>
+        <v>20.0</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="G57" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="12"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="3"/>
@@ -3498,22 +3506,34 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" ht="19.5" customHeight="1">
+    <row r="58" ht="31.5" customHeight="1">
       <c r="A58" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="12">
+        <v>45.0</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="G58" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -3533,19 +3553,29 @@
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="12">
+        <v>45.0</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="G59" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -4491,7 +4521,10 @@
       <c r="AA88" s="3"/>
     </row>
     <row r="89" ht="19.5" customHeight="1">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -30300,332 +30333,13 @@
       <c r="Z978" s="3"/>
       <c r="AA978" s="3"/>
     </row>
-    <row r="979" ht="19.5" customHeight="1">
-      <c r="A979" s="3"/>
-      <c r="B979" s="3"/>
-      <c r="C979" s="3"/>
-      <c r="D979" s="3"/>
-      <c r="E979" s="3"/>
-      <c r="F979" s="3"/>
-      <c r="G979" s="3"/>
-      <c r="H979" s="3"/>
-      <c r="I979" s="3"/>
-      <c r="J979" s="3"/>
-      <c r="K979" s="3"/>
-      <c r="L979" s="3"/>
-      <c r="M979" s="3"/>
-      <c r="N979" s="3"/>
-      <c r="O979" s="3"/>
-      <c r="P979" s="3"/>
-      <c r="Q979" s="3"/>
-      <c r="R979" s="3"/>
-      <c r="S979" s="3"/>
-      <c r="T979" s="3"/>
-      <c r="U979" s="3"/>
-      <c r="V979" s="3"/>
-      <c r="W979" s="3"/>
-      <c r="X979" s="3"/>
-      <c r="Y979" s="3"/>
-      <c r="Z979" s="3"/>
-      <c r="AA979" s="3"/>
-    </row>
-    <row r="980" ht="19.5" customHeight="1">
-      <c r="A980" s="3"/>
-      <c r="B980" s="3"/>
-      <c r="C980" s="3"/>
-      <c r="D980" s="3"/>
-      <c r="E980" s="3"/>
-      <c r="F980" s="3"/>
-      <c r="G980" s="3"/>
-      <c r="H980" s="3"/>
-      <c r="I980" s="3"/>
-      <c r="J980" s="3"/>
-      <c r="K980" s="3"/>
-      <c r="L980" s="3"/>
-      <c r="M980" s="3"/>
-      <c r="N980" s="3"/>
-      <c r="O980" s="3"/>
-      <c r="P980" s="3"/>
-      <c r="Q980" s="3"/>
-      <c r="R980" s="3"/>
-      <c r="S980" s="3"/>
-      <c r="T980" s="3"/>
-      <c r="U980" s="3"/>
-      <c r="V980" s="3"/>
-      <c r="W980" s="3"/>
-      <c r="X980" s="3"/>
-      <c r="Y980" s="3"/>
-      <c r="Z980" s="3"/>
-      <c r="AA980" s="3"/>
-    </row>
-    <row r="981" ht="19.5" customHeight="1">
-      <c r="A981" s="3"/>
-      <c r="B981" s="3"/>
-      <c r="C981" s="3"/>
-      <c r="D981" s="3"/>
-      <c r="E981" s="3"/>
-      <c r="F981" s="3"/>
-      <c r="G981" s="3"/>
-      <c r="H981" s="3"/>
-      <c r="I981" s="3"/>
-      <c r="J981" s="3"/>
-      <c r="K981" s="3"/>
-      <c r="L981" s="3"/>
-      <c r="M981" s="3"/>
-      <c r="N981" s="3"/>
-      <c r="O981" s="3"/>
-      <c r="P981" s="3"/>
-      <c r="Q981" s="3"/>
-      <c r="R981" s="3"/>
-      <c r="S981" s="3"/>
-      <c r="T981" s="3"/>
-      <c r="U981" s="3"/>
-      <c r="V981" s="3"/>
-      <c r="W981" s="3"/>
-      <c r="X981" s="3"/>
-      <c r="Y981" s="3"/>
-      <c r="Z981" s="3"/>
-      <c r="AA981" s="3"/>
-    </row>
-    <row r="982" ht="19.5" customHeight="1">
-      <c r="A982" s="3"/>
-      <c r="B982" s="3"/>
-      <c r="C982" s="3"/>
-      <c r="D982" s="3"/>
-      <c r="E982" s="3"/>
-      <c r="F982" s="3"/>
-      <c r="G982" s="3"/>
-      <c r="H982" s="3"/>
-      <c r="I982" s="3"/>
-      <c r="J982" s="3"/>
-      <c r="K982" s="3"/>
-      <c r="L982" s="3"/>
-      <c r="M982" s="3"/>
-      <c r="N982" s="3"/>
-      <c r="O982" s="3"/>
-      <c r="P982" s="3"/>
-      <c r="Q982" s="3"/>
-      <c r="R982" s="3"/>
-      <c r="S982" s="3"/>
-      <c r="T982" s="3"/>
-      <c r="U982" s="3"/>
-      <c r="V982" s="3"/>
-      <c r="W982" s="3"/>
-      <c r="X982" s="3"/>
-      <c r="Y982" s="3"/>
-      <c r="Z982" s="3"/>
-      <c r="AA982" s="3"/>
-    </row>
-    <row r="983" ht="19.5" customHeight="1">
-      <c r="A983" s="3"/>
-      <c r="B983" s="3"/>
-      <c r="C983" s="3"/>
-      <c r="D983" s="3"/>
-      <c r="E983" s="3"/>
-      <c r="F983" s="3"/>
-      <c r="G983" s="3"/>
-      <c r="H983" s="3"/>
-      <c r="I983" s="3"/>
-      <c r="J983" s="3"/>
-      <c r="K983" s="3"/>
-      <c r="L983" s="3"/>
-      <c r="M983" s="3"/>
-      <c r="N983" s="3"/>
-      <c r="O983" s="3"/>
-      <c r="P983" s="3"/>
-      <c r="Q983" s="3"/>
-      <c r="R983" s="3"/>
-      <c r="S983" s="3"/>
-      <c r="T983" s="3"/>
-      <c r="U983" s="3"/>
-      <c r="V983" s="3"/>
-      <c r="W983" s="3"/>
-      <c r="X983" s="3"/>
-      <c r="Y983" s="3"/>
-      <c r="Z983" s="3"/>
-      <c r="AA983" s="3"/>
-    </row>
-    <row r="984" ht="19.5" customHeight="1">
-      <c r="A984" s="3"/>
-      <c r="B984" s="3"/>
-      <c r="C984" s="3"/>
-      <c r="D984" s="3"/>
-      <c r="E984" s="3"/>
-      <c r="F984" s="3"/>
-      <c r="G984" s="3"/>
-      <c r="H984" s="3"/>
-      <c r="I984" s="3"/>
-      <c r="J984" s="3"/>
-      <c r="K984" s="3"/>
-      <c r="L984" s="3"/>
-      <c r="M984" s="3"/>
-      <c r="N984" s="3"/>
-      <c r="O984" s="3"/>
-      <c r="P984" s="3"/>
-      <c r="Q984" s="3"/>
-      <c r="R984" s="3"/>
-      <c r="S984" s="3"/>
-      <c r="T984" s="3"/>
-      <c r="U984" s="3"/>
-      <c r="V984" s="3"/>
-      <c r="W984" s="3"/>
-      <c r="X984" s="3"/>
-      <c r="Y984" s="3"/>
-      <c r="Z984" s="3"/>
-      <c r="AA984" s="3"/>
-    </row>
-    <row r="985" ht="19.5" customHeight="1">
-      <c r="A985" s="3"/>
-      <c r="B985" s="3"/>
-      <c r="C985" s="3"/>
-      <c r="D985" s="3"/>
-      <c r="E985" s="3"/>
-      <c r="F985" s="3"/>
-      <c r="G985" s="3"/>
-      <c r="H985" s="3"/>
-      <c r="I985" s="3"/>
-      <c r="J985" s="3"/>
-      <c r="K985" s="3"/>
-      <c r="L985" s="3"/>
-      <c r="M985" s="3"/>
-      <c r="N985" s="3"/>
-      <c r="O985" s="3"/>
-      <c r="P985" s="3"/>
-      <c r="Q985" s="3"/>
-      <c r="R985" s="3"/>
-      <c r="S985" s="3"/>
-      <c r="T985" s="3"/>
-      <c r="U985" s="3"/>
-      <c r="V985" s="3"/>
-      <c r="W985" s="3"/>
-      <c r="X985" s="3"/>
-      <c r="Y985" s="3"/>
-      <c r="Z985" s="3"/>
-      <c r="AA985" s="3"/>
-    </row>
-    <row r="986" ht="19.5" customHeight="1">
-      <c r="A986" s="3"/>
-      <c r="B986" s="3"/>
-      <c r="C986" s="3"/>
-      <c r="D986" s="3"/>
-      <c r="E986" s="3"/>
-      <c r="F986" s="3"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="3"/>
-      <c r="I986" s="3"/>
-      <c r="J986" s="3"/>
-      <c r="K986" s="3"/>
-      <c r="L986" s="3"/>
-      <c r="M986" s="3"/>
-      <c r="N986" s="3"/>
-      <c r="O986" s="3"/>
-      <c r="P986" s="3"/>
-      <c r="Q986" s="3"/>
-      <c r="R986" s="3"/>
-      <c r="S986" s="3"/>
-      <c r="T986" s="3"/>
-      <c r="U986" s="3"/>
-      <c r="V986" s="3"/>
-      <c r="W986" s="3"/>
-      <c r="X986" s="3"/>
-      <c r="Y986" s="3"/>
-      <c r="Z986" s="3"/>
-      <c r="AA986" s="3"/>
-    </row>
-    <row r="987" ht="19.5" customHeight="1">
-      <c r="A987" s="3"/>
-      <c r="B987" s="3"/>
-      <c r="C987" s="3"/>
-      <c r="D987" s="3"/>
-      <c r="E987" s="3"/>
-      <c r="F987" s="3"/>
-      <c r="G987" s="3"/>
-      <c r="H987" s="3"/>
-      <c r="I987" s="3"/>
-      <c r="J987" s="3"/>
-      <c r="K987" s="3"/>
-      <c r="L987" s="3"/>
-      <c r="M987" s="3"/>
-      <c r="N987" s="3"/>
-      <c r="O987" s="3"/>
-      <c r="P987" s="3"/>
-      <c r="Q987" s="3"/>
-      <c r="R987" s="3"/>
-      <c r="S987" s="3"/>
-      <c r="T987" s="3"/>
-      <c r="U987" s="3"/>
-      <c r="V987" s="3"/>
-      <c r="W987" s="3"/>
-      <c r="X987" s="3"/>
-      <c r="Y987" s="3"/>
-      <c r="Z987" s="3"/>
-      <c r="AA987" s="3"/>
-    </row>
-    <row r="988" ht="19.5" customHeight="1">
-      <c r="A988" s="3"/>
-      <c r="B988" s="3"/>
-      <c r="C988" s="3"/>
-      <c r="D988" s="3"/>
-      <c r="E988" s="3"/>
-      <c r="F988" s="3"/>
-      <c r="G988" s="3"/>
-      <c r="H988" s="3"/>
-      <c r="I988" s="3"/>
-      <c r="J988" s="3"/>
-      <c r="K988" s="3"/>
-      <c r="L988" s="3"/>
-      <c r="M988" s="3"/>
-      <c r="N988" s="3"/>
-      <c r="O988" s="3"/>
-      <c r="P988" s="3"/>
-      <c r="Q988" s="3"/>
-      <c r="R988" s="3"/>
-      <c r="S988" s="3"/>
-      <c r="T988" s="3"/>
-      <c r="U988" s="3"/>
-      <c r="V988" s="3"/>
-      <c r="W988" s="3"/>
-      <c r="X988" s="3"/>
-      <c r="Y988" s="3"/>
-      <c r="Z988" s="3"/>
-      <c r="AA988" s="3"/>
-    </row>
-    <row r="989" ht="19.5" customHeight="1">
-      <c r="A989" s="3"/>
-      <c r="B989" s="3"/>
-      <c r="C989" s="3"/>
-      <c r="D989" s="3"/>
-      <c r="E989" s="3"/>
-      <c r="F989" s="3"/>
-      <c r="G989" s="3"/>
-      <c r="H989" s="3"/>
-      <c r="I989" s="3"/>
-      <c r="J989" s="3"/>
-      <c r="K989" s="3"/>
-      <c r="L989" s="3"/>
-      <c r="M989" s="3"/>
-      <c r="N989" s="3"/>
-      <c r="O989" s="3"/>
-      <c r="P989" s="3"/>
-      <c r="Q989" s="3"/>
-      <c r="R989" s="3"/>
-      <c r="S989" s="3"/>
-      <c r="T989" s="3"/>
-      <c r="U989" s="3"/>
-      <c r="V989" s="3"/>
-      <c r="W989" s="3"/>
-      <c r="X989" s="3"/>
-      <c r="Y989" s="3"/>
-      <c r="Z989" s="3"/>
-      <c r="AA989" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E57">
+  <conditionalFormatting sqref="E2:E59">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G57">
+  <conditionalFormatting sqref="F2:G59">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(F2))=0</formula>
     </cfRule>
@@ -30667,908 +30381,908 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>108</v>
       </c>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="A2" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$89,3,0))</f>
         <v>Orga</v>
       </c>
-      <c r="C2" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="C2" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$89,4,0))</f>
         <v>40</v>
       </c>
-      <c r="D2" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="D2" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$89,3,0))</f>
         <v>Git1: Intro</v>
       </c>
-      <c r="E2" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="E2" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$89,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F2" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="F2" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$89,3,0))</f>
         <v>Git2: Basics</v>
       </c>
-      <c r="G2" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="G2" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$89,4,0))</f>
         <v>25</v>
       </c>
-      <c r="H2" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="H2" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$89,3,0))</f>
         <v>Debugging</v>
       </c>
-      <c r="I2" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="I2" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$89,4,0))</f>
         <v>15</v>
       </c>
-      <c r="J2" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="J2" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="K2" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="K2" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="L2" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="L2" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="M2" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="M2" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="O2" s="27">
+      <c r="O2" s="28">
         <f t="shared" ref="O2:O16" si="1">sum(C2,E2,G2,I2,K2,M2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="A3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$89,3,0))</f>
         <v>Git3: Branches</v>
       </c>
-      <c r="C3" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="C3" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$89,4,0))</f>
         <v>25</v>
       </c>
-      <c r="D3" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="D3" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$89,3,0))</f>
         <v>Git4: Brachingstrategien</v>
       </c>
-      <c r="E3" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="E3" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$89,4,0))</f>
         <v>25</v>
       </c>
-      <c r="F3" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="F3" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$89,3,0))</f>
         <v>Logging</v>
       </c>
-      <c r="G3" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="G3" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$89,4,0))</f>
         <v>15</v>
       </c>
-      <c r="H3" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="H3" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$89,3,0))</f>
         <v>Javadoc</v>
       </c>
-      <c r="I3" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="I3" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$89,4,0))</f>
         <v>10</v>
       </c>
-      <c r="J3" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="J3" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$89,3,0))</f>
         <v>Command-Pattern</v>
       </c>
-      <c r="K3" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="K3" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$89,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L3" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="L3" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="M3" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="M3" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="27">
+      <c r="N3" s="31"/>
+      <c r="O3" s="28">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Git5: Remote</v>
-      </c>
-      <c r="C4" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="A4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Git5: Remotes</v>
+      </c>
+      <c r="C4" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$89,4,0))</f>
         <v>25</v>
       </c>
-      <c r="D4" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="D4" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$89,3,0))</f>
         <v>Git6: Workflows</v>
       </c>
-      <c r="E4" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="E4" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$89,4,0))</f>
         <v>25</v>
       </c>
-      <c r="F4" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="F4" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$89,3,0))</f>
         <v>Generics1: Klassen &amp; Methoden</v>
       </c>
-      <c r="G4" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="G4" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$89,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H4" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="H4" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$89,3,0))</f>
         <v>Generics2: Bounds &amp; Wildcards</v>
       </c>
-      <c r="I4" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="I4" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$89,4,0))</f>
         <v>20</v>
       </c>
-      <c r="J4" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="J4" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$89,3,0))</f>
         <v>Strategy-Pattern</v>
       </c>
-      <c r="K4" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="K4" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$89,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L4" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="L4" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="M4" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="M4" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="28">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="A5" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$89,3,0))</f>
         <v>Generics3: Type Erasure</v>
       </c>
-      <c r="C5" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="C5" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$89,4,0))</f>
         <v>20</v>
       </c>
-      <c r="D5" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="D5" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$89,3,0))</f>
         <v>Generics4: Polymorphie</v>
       </c>
-      <c r="E5" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="E5" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$89,4,0))</f>
         <v>15</v>
       </c>
-      <c r="F5" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="F5" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$89,3,0))</f>
         <v>JDBC</v>
       </c>
-      <c r="G5" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="G5" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$89,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H5" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Flyweight-Pattern und Type Object</v>
-      </c>
-      <c r="I5" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="H5" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Flyweight-Pattern</v>
+      </c>
+      <c r="I5" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$89,4,0))</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Type Object</v>
+      </c>
+      <c r="K5" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$89,4,0))</f>
+        <v>10</v>
+      </c>
+      <c r="L5" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Observer-Pattern</v>
+      </c>
+      <c r="M5" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$89,4,0))</f>
+        <v>10</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="28">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Git7: Bisect</v>
+      </c>
+      <c r="C6" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$89,4,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$89,3,0))</f>
+        <v>JUnit1: Basics</v>
+      </c>
+      <c r="E6" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$89,4,0))</f>
         <v>20</v>
       </c>
-      <c r="J5" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Template-Method-Pattern</v>
-      </c>
-      <c r="K5" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="F6" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$89,3,0))</f>
+        <v>JUnit2: Testfall-Ermittlung</v>
+      </c>
+      <c r="G6" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="H6" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Mockito: Mocking</v>
+      </c>
+      <c r="I6" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="J6" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$89,3,0))</f>
+        <v>TDD</v>
+      </c>
+      <c r="K6" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$89,4,0))</f>
         <v>15</v>
       </c>
-      <c r="L5" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="L6" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="M5" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="M6" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="27">
+      <c r="O6" s="28">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Bad Smells / Metrics / Tools (Checkstyle, PMD)</v>
+      </c>
+      <c r="C7" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$89,4,0))</f>
+        <v>35</v>
+      </c>
+      <c r="D7" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Refactoring</v>
+      </c>
+      <c r="E7" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$89,4,0))</f>
+        <v>35</v>
+      </c>
+      <c r="F7" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Collections</v>
+      </c>
+      <c r="G7" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$89,4,0))</f>
+        <v>35</v>
+      </c>
+      <c r="H7" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="I7" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="J7" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="K7" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="L7" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="M7" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="28">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Build1: ANT</v>
+      </c>
+      <c r="C8" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="D8" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Build2: Maven</v>
+      </c>
+      <c r="E8" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="F8" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Build3: Gradle</v>
+      </c>
+      <c r="G8" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$89,4,0))</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Build4: CI</v>
+      </c>
+      <c r="I8" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="J8" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Build5: Docker</v>
+      </c>
+      <c r="K8" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="L8" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="M8" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="O8" s="28">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>E1</v>
+      </c>
+      <c r="C9" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$89,4,0))</f>
+        <v>45</v>
+      </c>
+      <c r="D9" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Annotationen</v>
+      </c>
+      <c r="E9" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$89,4,0))</f>
+        <v>30</v>
+      </c>
+      <c r="F9" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Reflection</v>
+      </c>
+      <c r="G9" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$89,4,0))</f>
+        <v>30</v>
+      </c>
+      <c r="H9" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="I9" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="J9" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="K9" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="L9" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="M9" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="28">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Funktionsinterfaces &amp; Lambdas</v>
+      </c>
+      <c r="C10" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$89,4,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Methodenreferenzen</v>
+      </c>
+      <c r="E10" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$89,4,0))</f>
+        <v>25</v>
+      </c>
+      <c r="F10" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Defaultmethoden</v>
+      </c>
+      <c r="G10" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="H10" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$89,3,0))</f>
+        <v>RegExp</v>
+      </c>
+      <c r="I10" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$89,4,0))</f>
+        <v>35</v>
+      </c>
+      <c r="J10" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="K10" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="L10" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="M10" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="O10" s="28">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Git7: Bisect</v>
-      </c>
-      <c r="C6" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$88,4,0))</f>
+    <row r="11">
+      <c r="A11" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Stream API</v>
+      </c>
+      <c r="C11" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$89,4,0))</f>
+        <v>30</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Records-Klassen</v>
+      </c>
+      <c r="E11" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="F11" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Optional</v>
+      </c>
+      <c r="G11" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="H11" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Visitor-Pattern</v>
+      </c>
+      <c r="I11" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$89,4,0))</f>
         <v>10</v>
       </c>
-      <c r="D6" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$88,3,0))</f>
-        <v>JUnit1: Basics</v>
-      </c>
-      <c r="E6" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$88,4,0))</f>
-        <v>30</v>
-      </c>
-      <c r="F6" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$88,3,0))</f>
-        <v>JUnit2: Testfall-Ermittlung</v>
-      </c>
-      <c r="G6" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$88,4,0))</f>
-        <v>30</v>
-      </c>
-      <c r="H6" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Mockito: Mocking</v>
-      </c>
-      <c r="I6" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="J11" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Factory- (Method-) Pattern</v>
+      </c>
+      <c r="K11" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$89,4,0))</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="M11" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="28">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Threads1: Intro</v>
+      </c>
+      <c r="C12" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$89,4,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Threads2: Synchronisierung</v>
+      </c>
+      <c r="E12" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$89,4,0))</f>
+        <v>25</v>
+      </c>
+      <c r="F12" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Threads3: High-Level Konzepte</v>
+      </c>
+      <c r="G12" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$89,4,0))</f>
+        <v>25</v>
+      </c>
+      <c r="H12" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Enumerationen</v>
+      </c>
+      <c r="I12" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$89,4,0))</f>
+        <v>15</v>
+      </c>
+      <c r="J12" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Exceptions</v>
+      </c>
+      <c r="K12" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$89,4,0))</f>
+        <v>15</v>
+      </c>
+      <c r="L12" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$89,3,0))</f>
+        <v/>
+      </c>
+      <c r="M12" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$89,4,0))</f>
+        <v/>
+      </c>
+      <c r="O12" s="28">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Configuration, JLink, JPackage</v>
+      </c>
+      <c r="C13" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$89,4,0))</f>
+        <v>25</v>
+      </c>
+      <c r="D13" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Serialisierung</v>
+      </c>
+      <c r="E13" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$89,4,0))</f>
         <v>20</v>
       </c>
-      <c r="J6" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Observer-Pattern</v>
-      </c>
-      <c r="K6" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$88,4,0))</f>
-        <v>10</v>
-      </c>
-      <c r="L6" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="F13" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Swing</v>
+      </c>
+      <c r="G13" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="H13" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Java2D</v>
+      </c>
+      <c r="I13" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="J13" s="29" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Template-Method-Pattern</v>
+      </c>
+      <c r="K13" s="30">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$89,4,0))</f>
+        <v>15</v>
+      </c>
+      <c r="L13" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="M6" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="M13" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="O6" s="27">
+      <c r="N13" s="31"/>
+      <c r="O13" s="28">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Bad Smells / Metrics / Tools (Checkstyle, PMD)</v>
-      </c>
-      <c r="C7" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$88,4,0))</f>
-        <v>35</v>
-      </c>
-      <c r="D7" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Refactoring</v>
-      </c>
-      <c r="E7" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$88,4,0))</f>
-        <v>35</v>
-      </c>
-      <c r="F7" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Collections</v>
-      </c>
-      <c r="G7" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$88,4,0))</f>
-        <v>35</v>
-      </c>
-      <c r="H7" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$88,3,0))</f>
+    <row r="14">
+      <c r="A14" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Rückblick</v>
+      </c>
+      <c r="C14" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="D14" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$89,3,0))</f>
+        <v>Prüfungsvorbereitung</v>
+      </c>
+      <c r="E14" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$89,4,0))</f>
+        <v>20</v>
+      </c>
+      <c r="F14" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="I7" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="G14" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="J7" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="H14" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="K7" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="I14" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="L7" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="J14" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="M7" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="K14" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="27">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Build1: ANT</v>
-      </c>
-      <c r="C8" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="D8" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Build2: Maven</v>
-      </c>
-      <c r="E8" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="F8" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Build3: Gradle</v>
-      </c>
-      <c r="G8" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$88,4,0))</f>
-        <v>15</v>
-      </c>
-      <c r="H8" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Build4: CI</v>
-      </c>
-      <c r="I8" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="J8" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Build5: Docker</v>
-      </c>
-      <c r="K8" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="L8" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="L14" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="M8" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="M14" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="O8" s="27">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>E1</v>
-      </c>
-      <c r="C9" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$88,4,0))</f>
-        <v>45</v>
-      </c>
-      <c r="D9" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Annotationen</v>
-      </c>
-      <c r="E9" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$88,4,0))</f>
-        <v>30</v>
-      </c>
-      <c r="F9" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Reflection</v>
-      </c>
-      <c r="G9" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$88,4,0))</f>
-        <v>30</v>
-      </c>
-      <c r="H9" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="I9" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="J9" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="K9" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="L9" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="M9" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="27">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Funktionsinterfaces &amp; Lambdas</v>
-      </c>
-      <c r="C10" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$88,4,0))</f>
-        <v>10</v>
-      </c>
-      <c r="D10" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Methodenreferenzen</v>
-      </c>
-      <c r="E10" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$88,4,0))</f>
-        <v>25</v>
-      </c>
-      <c r="F10" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Defaultmethoden</v>
-      </c>
-      <c r="G10" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="H10" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$88,3,0))</f>
-        <v>RegExp</v>
-      </c>
-      <c r="I10" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$88,4,0))</f>
-        <v>35</v>
-      </c>
-      <c r="J10" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="K10" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="L10" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="M10" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="O10" s="27">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Stream API</v>
-      </c>
-      <c r="C11" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$88,4,0))</f>
-        <v>30</v>
-      </c>
-      <c r="D11" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Records-Klassen</v>
-      </c>
-      <c r="E11" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="F11" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Optional</v>
-      </c>
-      <c r="G11" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="H11" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Visitor-Pattern</v>
-      </c>
-      <c r="I11" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$88,4,0))</f>
-        <v>10</v>
-      </c>
-      <c r="J11" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Factory- (Method-) Pattern</v>
-      </c>
-      <c r="K11" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$88,4,0))</f>
-        <v>10</v>
-      </c>
-      <c r="L11" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="M11" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="27">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Threads1: Intro</v>
-      </c>
-      <c r="C12" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$88,4,0))</f>
-        <v>10</v>
-      </c>
-      <c r="D12" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Threads2: Synchronisierung</v>
-      </c>
-      <c r="E12" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$88,4,0))</f>
-        <v>25</v>
-      </c>
-      <c r="F12" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Threads3: High-Level Konzepte</v>
-      </c>
-      <c r="G12" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$88,4,0))</f>
-        <v>25</v>
-      </c>
-      <c r="H12" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Enumerationen</v>
-      </c>
-      <c r="I12" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$88,4,0))</f>
-        <v>15</v>
-      </c>
-      <c r="J12" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Exception</v>
-      </c>
-      <c r="K12" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$88,4,0))</f>
-        <v>15</v>
-      </c>
-      <c r="L12" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="M12" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="O12" s="27">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Configuration, JLink, JPackage</v>
-      </c>
-      <c r="C13" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$88,4,0))</f>
-        <v>25</v>
-      </c>
-      <c r="D13" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Serialisierung</v>
-      </c>
-      <c r="E13" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="F13" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Swing</v>
-      </c>
-      <c r="G13" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="H13" s="28" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Java2D</v>
-      </c>
-      <c r="I13" s="29">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="J13" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="K13" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="L13" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="M13" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="27">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Rückblick</v>
-      </c>
-      <c r="C14" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="D14" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$88,3,0))</f>
-        <v>Prüfungsvorbereitung</v>
-      </c>
-      <c r="E14" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$88,4,0))</f>
-        <v>20</v>
-      </c>
-      <c r="F14" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="G14" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="H14" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="I14" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="J14" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="K14" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="L14" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$88,3,0))</f>
-        <v/>
-      </c>
-      <c r="M14" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$88,4,0))</f>
-        <v/>
-      </c>
-      <c r="O14" s="27">
+      <c r="O14" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="A15" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="C15" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="C15" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="D15" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="D15" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="E15" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="E15" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="F15" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="F15" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="G15" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="G15" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="H15" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="H15" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="I15" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="I15" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="J15" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="J15" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="K15" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="K15" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="L15" s="30" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="L15" s="31" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="M15" s="29" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="M15" s="30" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="27">
+      <c r="N15" s="31"/>
+      <c r="O15" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="24" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="A16" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="25" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$89,3,0))</f>
         <v>E2</v>
       </c>
-      <c r="C16" s="25">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="C16" s="26">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$89,4,0))</f>
         <v>45</v>
       </c>
-      <c r="D16" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="D16" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="E16" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="E16" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="F16" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="F16" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="G16" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="G16" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="H16" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="H16" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="I16" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="I16" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="J16" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="J16" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="K16" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="K16" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="L16" s="26" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$88,3,0)),"",VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$88,3,0))</f>
+      <c r="L16" s="27" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$89,3,0)),"",VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$89,3,0))</f>
         <v/>
       </c>
-      <c r="M16" s="25" t="str">
-        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$88,4,0)),"",VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$88,4,0))</f>
+      <c r="M16" s="26" t="str">
+        <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$89,4,0)),"",VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$89,4,0))</f>
         <v/>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>

--- a/data/planung_pm.xlsx
+++ b/data/planung_pm.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjfb3eEcsRZazzo/QQuuLwkUwVpXw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miOe/mCRBr8+g/VVMlSkTTzknUx4w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="154">
   <si>
     <t>Thema</t>
   </si>
@@ -364,6 +364,9 @@
     <t>Summe Dauer</t>
   </si>
   <si>
+    <t>KW</t>
+  </si>
+  <si>
     <t>Feiertage</t>
   </si>
   <si>
@@ -379,7 +382,8 @@
     <t>2</t>
   </si>
   <si>
-    <t>Karfreitag</t>
+    <t>Karfreitag
+(Fr)</t>
   </si>
   <si>
     <t>P1: Konzeptübungen zu Git (Basics, Branches, Remotes); Dungeon-Basics</t>
@@ -388,7 +392,8 @@
     <t>3</t>
   </si>
   <si>
-    <t>Ostermontag</t>
+    <t>Ostermontag
+(Mo)</t>
   </si>
   <si>
     <t>P2</t>
@@ -421,7 +426,8 @@
     <t>8</t>
   </si>
   <si>
-    <t>Himmelfahrt</t>
+    <t>Himmelfahrt
+(Do)</t>
   </si>
   <si>
     <t>E-Assessment: Kein Praktikum (Prüfungsbelastung)</t>
@@ -436,7 +442,8 @@
     <t>10</t>
   </si>
   <si>
-    <t>Pfingstmontag</t>
+    <t>Pfingstmontag
+(Mo)</t>
   </si>
   <si>
     <t>Projekt 1b</t>
@@ -445,7 +452,8 @@
     <t>11</t>
   </si>
   <si>
-    <t>Fronleichnam</t>
+    <t>Fronleichnam
+(Do)</t>
   </si>
   <si>
     <t>Projekt 2a</t>
@@ -482,7 +490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -503,6 +511,7 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font/>
   </fonts>
   <fills count="6">
     <fill>
@@ -651,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -724,6 +733,9 @@
     <xf borderId="8" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -734,6 +746,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -748,8 +763,14 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -30525,8 +30546,9 @@
     <col customWidth="1" min="14" max="14" width="12.0"/>
     <col customWidth="1" min="15" max="15" width="7.86"/>
     <col customWidth="1" min="16" max="16" width="5.29"/>
-    <col customWidth="1" min="19" max="19" width="15.29"/>
-    <col customWidth="1" min="20" max="20" width="59.57"/>
+    <col customWidth="1" min="19" max="19" width="6.14"/>
+    <col customWidth="1" min="20" max="20" width="15.29"/>
+    <col customWidth="1" min="21" max="21" width="59.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -30580,1083 +30602,1135 @@
         <v>114</v>
       </c>
       <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="24" t="s">
         <v>115</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="U1" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="25" t="str">
+      <c r="A2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Orga</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>40</v>
       </c>
-      <c r="D2" s="25" t="str">
+      <c r="D2" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git1: Intro</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F2" s="25" t="str">
+      <c r="F2" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git2: Basics</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="H2" s="25" t="str">
+      <c r="H2" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git3: Branches</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="J2" s="25" t="str">
+      <c r="J2" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git4: Brachingstrategien</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="L2" s="25" t="str">
+      <c r="L2" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v>Debugging</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="N2" s="25" t="str">
+      <c r="N2" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A2,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v>JDBC</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A2,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A2,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="28">
         <f t="shared" ref="Q2:Q16" si="1">sum(C2,E2,G2,I2,K2,M2,O2)</f>
         <v>170</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28" t="s">
-        <v>118</v>
+      <c r="S2" s="29">
+        <v>14.0</v>
+      </c>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="29" t="str">
+      <c r="A3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git5: Remotes</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="D3" s="29" t="str">
+      <c r="D3" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git6: Workflows</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="F3" s="29" t="str">
+      <c r="F3" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Logging</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="H3" s="29" t="str">
+      <c r="H3" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Javadoc</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="J3" s="29" t="str">
+      <c r="J3" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Factory- (Method-) Pattern</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L3" s="31" t="str">
+      <c r="L3" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M3" s="30" t="str">
+      <c r="M3" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N3" s="31" t="str">
+      <c r="N3" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A3,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O3" s="30" t="str">
+      <c r="O3" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A3,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A3,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="27">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="28">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="S3" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="T3" s="28" t="s">
+      <c r="S3" s="29">
+        <v>15.0</v>
+      </c>
+      <c r="T3" s="34" t="s">
         <v>121</v>
       </c>
+      <c r="U3" s="30" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="25" t="str">
+      <c r="A4" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Generics1: Klassen &amp; Methoden</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="D4" s="25" t="str">
+      <c r="D4" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Generics2: Bounds &amp; Wildcards</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F4" s="25" t="str">
+      <c r="F4" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Generics3: Type Erasure</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H4" s="25" t="str">
+      <c r="H4" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Generics4: Polymorphie</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="J4" s="25" t="str">
+      <c r="J4" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Strategy-Pattern</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L4" s="32" t="str">
+      <c r="L4" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M4" s="26" t="str">
+      <c r="M4" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N4" s="32" t="str">
+      <c r="N4" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A4,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O4" s="26" t="str">
+      <c r="O4" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A4,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A4,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="28">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="S4" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" s="28" t="s">
+      <c r="S4" s="29">
+        <v>16.0</v>
+      </c>
+      <c r="T4" s="34" t="s">
         <v>124</v>
       </c>
+      <c r="U4" s="30" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="29" t="str">
+      <c r="A5" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Build3: Gradle</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="D5" s="29" t="str">
+      <c r="D5" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Build4: CI</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>JUnit1: Basics</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H5" s="29" t="str">
+      <c r="H5" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>JUnit2: Testfall-Ermittlung</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="J5" s="29" t="str">
+      <c r="J5" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>TDD</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="L5" s="31" t="str">
+      <c r="L5" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M5" s="30" t="str">
+      <c r="M5" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N5" s="31" t="str">
+      <c r="N5" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A5,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O5" s="30" t="str">
+      <c r="O5" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A5,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A5,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="27">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="28">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28" t="s">
-        <v>126</v>
+      <c r="S5" s="29">
+        <v>17.0</v>
+      </c>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="25" t="str">
+      <c r="A6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Bad Smells / Metrics / Tools (Checkstyle, PMD)</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>35</v>
       </c>
-      <c r="D6" s="25" t="str">
+      <c r="D6" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Refactoring</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>35</v>
       </c>
-      <c r="F6" s="25" t="str">
+      <c r="F6" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Mockito: Mocking</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H6" s="32" t="str">
+      <c r="H6" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="I6" s="26" t="str">
+      <c r="I6" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="J6" s="32" t="str">
+      <c r="J6" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K6" s="26" t="str">
+      <c r="K6" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L6" s="32" t="str">
+      <c r="L6" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M6" s="26" t="str">
+      <c r="M6" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N6" s="32" t="str">
+      <c r="N6" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A6,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O6" s="26" t="str">
+      <c r="O6" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A6,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A6,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="28">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28" t="s">
-        <v>128</v>
+      <c r="S6" s="29">
+        <v>18.0</v>
+      </c>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="29" t="str">
+      <c r="A7" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Git7: Bisect</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="D7" s="29" t="str">
+      <c r="D7" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Serialisierung</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F7" s="29" t="str">
+      <c r="F7" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Collections</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>35</v>
       </c>
-      <c r="H7" s="29" t="str">
+      <c r="H7" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Flyweight-Pattern</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="J7" s="29" t="str">
+      <c r="J7" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Type Object</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L7" s="29" t="str">
+      <c r="L7" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v>Observer-Pattern</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="N7" s="31" t="str">
+      <c r="N7" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A7,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O7" s="30" t="str">
+      <c r="O7" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A7,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A7,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="27">
+      <c r="P7" s="33"/>
+      <c r="Q7" s="28">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28" t="s">
-        <v>130</v>
+      <c r="S7" s="29">
+        <v>19.0</v>
+      </c>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="25" t="str">
+      <c r="A8" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Annotationen</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>30</v>
       </c>
-      <c r="D8" s="25" t="str">
+      <c r="D8" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Reflection</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>30</v>
       </c>
-      <c r="F8" s="25" t="str">
+      <c r="F8" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Template-Method-Pattern</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="H8" s="32" t="str">
+      <c r="H8" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="J8" s="32" t="str">
+      <c r="J8" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L8" s="32" t="str">
+      <c r="L8" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M8" s="26" t="str">
+      <c r="M8" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N8" s="32" t="str">
+      <c r="N8" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A8,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O8" s="26" t="str">
+      <c r="O8" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A8,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A8,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="28">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28" t="s">
-        <v>132</v>
+      <c r="S8" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="29" t="str">
+      <c r="A9" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>E1</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>45</v>
       </c>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Build1: ANT</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F9" s="29" t="str">
+      <c r="F9" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Build2: Maven</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H9" s="29" t="str">
+      <c r="H9" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Build5: Docker</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="J9" s="31" t="str">
+      <c r="J9" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K9" s="30" t="str">
+      <c r="K9" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L9" s="31" t="str">
+      <c r="L9" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M9" s="30" t="str">
+      <c r="M9" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N9" s="31" t="str">
+      <c r="N9" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A9,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O9" s="30" t="str">
+      <c r="O9" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A9,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A9,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="27">
+      <c r="P9" s="33"/>
+      <c r="Q9" s="28">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="S9" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="T9" s="28" t="s">
+      <c r="S9" s="29">
+        <v>21.0</v>
+      </c>
+      <c r="T9" s="34" t="s">
         <v>135</v>
       </c>
+      <c r="U9" s="30" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="25" t="str">
+      <c r="A10" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Funktionsinterfaces &amp; Lambdas</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="D10" s="25" t="str">
+      <c r="D10" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Methodenreferenzen</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="F10" s="25" t="str">
+      <c r="F10" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Defaultmethoden</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H10" s="25" t="str">
+      <c r="H10" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>RegExp</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>35</v>
       </c>
-      <c r="J10" s="32" t="str">
+      <c r="J10" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K10" s="26" t="str">
+      <c r="K10" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L10" s="32" t="str">
+      <c r="L10" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M10" s="26" t="str">
+      <c r="M10" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N10" s="32" t="str">
+      <c r="N10" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A10,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O10" s="26" t="str">
+      <c r="O10" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A10,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A10,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="28">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28" t="s">
-        <v>137</v>
+      <c r="S10" s="29">
+        <v>22.0</v>
+      </c>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="29" t="str">
+      <c r="A11" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Stream API</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>30</v>
       </c>
-      <c r="D11" s="29" t="str">
+      <c r="D11" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Records-Klassen</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F11" s="29" t="str">
+      <c r="F11" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Optional</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H11" s="29" t="str">
+      <c r="H11" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Visitor-Pattern</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="J11" s="29" t="str">
+      <c r="J11" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Command-Pattern</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="L11" s="31" t="str">
+      <c r="L11" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M11" s="30" t="str">
+      <c r="M11" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N11" s="31" t="str">
+      <c r="N11" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A11,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O11" s="30" t="str">
+      <c r="O11" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A11,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A11,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="27">
+      <c r="P11" s="33"/>
+      <c r="Q11" s="28">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S11" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="T11" s="28" t="s">
+      <c r="S11" s="29">
+        <v>23.0</v>
+      </c>
+      <c r="T11" s="34" t="s">
         <v>140</v>
       </c>
+      <c r="U11" s="30" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="25" t="str">
+      <c r="A12" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Threads1: Intro</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>10</v>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Threads2: Synchronisierung</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="F12" s="25" t="str">
+      <c r="F12" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Threads3: High-Level Konzepte</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="H12" s="25" t="str">
+      <c r="H12" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Enumerationen</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="J12" s="25" t="str">
+      <c r="J12" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v>Exceptions</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v>15</v>
       </c>
-      <c r="L12" s="32" t="str">
+      <c r="L12" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M12" s="26" t="str">
+      <c r="M12" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N12" s="32" t="str">
+      <c r="N12" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A12,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O12" s="26" t="str">
+      <c r="O12" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A12,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A12,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="28">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S12" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="T12" s="28" t="s">
+      <c r="S12" s="29">
+        <v>24.0</v>
+      </c>
+      <c r="T12" s="34" t="s">
         <v>143</v>
       </c>
+      <c r="U12" s="30" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="29" t="str">
+      <c r="A13" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Configuration, JLink, JPackage</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Frameworks (Guava, Apache Commons, ...)</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>25</v>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v>Swing</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="H13" s="29" t="str">
+      <c r="H13" s="31" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v>Java2D</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="32">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="J13" s="31" t="str">
+      <c r="J13" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K13" s="30" t="str">
+      <c r="K13" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L13" s="31" t="str">
+      <c r="L13" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M13" s="30" t="str">
+      <c r="M13" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N13" s="31" t="str">
+      <c r="N13" s="33" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A13,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O13" s="30" t="str">
+      <c r="O13" s="32" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A13,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A13,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="27">
+      <c r="P13" s="33"/>
+      <c r="Q13" s="28">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28" t="s">
-        <v>145</v>
+      <c r="S13" s="29">
+        <v>25.0</v>
+      </c>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="25" t="str">
+      <c r="A14" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>Rückblick</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v>Prüfungsvorbereitung</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="27">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v>20</v>
       </c>
-      <c r="F14" s="32" t="str">
+      <c r="F14" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str">
+      <c r="G14" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="H14" s="32" t="str">
+      <c r="H14" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="I14" s="26" t="str">
+      <c r="I14" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="J14" s="32" t="str">
+      <c r="J14" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K14" s="26" t="str">
+      <c r="K14" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L14" s="32" t="str">
+      <c r="L14" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M14" s="26" t="str">
+      <c r="M14" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N14" s="32" t="str">
+      <c r="N14" s="35" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A14,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O14" s="26" t="str">
+      <c r="O14" s="27" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A14,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A14,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="28">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="S14" s="36">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="33" t="str">
+      <c r="A15" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="C15" s="34" t="str">
+      <c r="C15" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A15,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="D15" s="33" t="str">
+      <c r="D15" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="E15" s="34" t="str">
+      <c r="E15" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A15,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="F15" s="33" t="str">
+      <c r="F15" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="G15" s="34" t="str">
+      <c r="G15" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A15,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="H15" s="33" t="str">
+      <c r="H15" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="I15" s="34" t="str">
+      <c r="I15" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A15,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="J15" s="33" t="str">
+      <c r="J15" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K15" s="34" t="str">
+      <c r="K15" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A15,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L15" s="33" t="str">
+      <c r="L15" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M15" s="34" t="str">
+      <c r="M15" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A15,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N15" s="33" t="str">
+      <c r="N15" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A15,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O15" s="34" t="str">
+      <c r="O15" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A15,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A15,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="27">
+      <c r="P15" s="37"/>
+      <c r="Q15" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S15" s="36">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="35" t="str">
+      <c r="A16" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="39" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$90,3,0))</f>
         <v>E2</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="38">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A16,"1"),Themen!$A$1:$I$90,4,0))</f>
         <v>45</v>
       </c>
-      <c r="D16" s="33" t="str">
+      <c r="D16" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="E16" s="34" t="str">
+      <c r="E16" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A16,"2"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="F16" s="33" t="str">
+      <c r="F16" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="G16" s="34" t="str">
+      <c r="G16" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A16,"3"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="H16" s="33" t="str">
+      <c r="H16" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="I16" s="34" t="str">
+      <c r="I16" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A16,"4"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="J16" s="33" t="str">
+      <c r="J16" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="K16" s="34" t="str">
+      <c r="K16" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A16,"5"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="L16" s="33" t="str">
+      <c r="L16" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="M16" s="34" t="str">
+      <c r="M16" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A16,"6"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="N16" s="33" t="str">
+      <c r="N16" s="37" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"7"),Themen!$A$1:$I$90,3,0)),"",VLOOKUP(CONCATENATE($A16,"7"),Themen!$A$1:$I$90,3,0))</f>
         <v/>
       </c>
-      <c r="O16" s="34" t="str">
+      <c r="O16" s="38" t="str">
         <f>IF(ISERROR(VLOOKUP(CONCATENATE($A16,"7"),Themen!$A$1:$I$90,4,0)),"",VLOOKUP(CONCATENATE($A16,"7"),Themen!$A$1:$I$90,4,0))</f>
         <v/>
       </c>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="27">
+      <c r="P16" s="37"/>
+      <c r="Q16" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
+      <c r="S16" s="36">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="4"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28" t="s">
-        <v>149</v>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28" t="s">
-        <v>150</v>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28" t="s">
-        <v>151</v>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28" t="s">
-        <v>152</v>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="22">
